--- a/data/financial_statements/sofp/CDNS.xlsx
+++ b/data/financial_statements/sofp/CDNS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1026051000</v>
+        <v>1026000000</v>
       </c>
       <c r="C2">
-        <v>1029544000</v>
+        <v>1030000000</v>
       </c>
       <c r="D2">
-        <v>1134752000</v>
+        <v>1135000000</v>
       </c>
       <c r="E2">
-        <v>1088940000</v>
+        <v>1089000000</v>
       </c>
       <c r="F2">
-        <v>1013819000</v>
+        <v>1014000000</v>
       </c>
       <c r="G2">
         <v>847160000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>391181000</v>
+        <v>430000000</v>
       </c>
       <c r="C3">
-        <v>391738000</v>
+        <v>415000000</v>
       </c>
       <c r="D3">
-        <v>361789000</v>
+        <v>381000000</v>
       </c>
       <c r="E3">
-        <v>337596000</v>
+        <v>344000000</v>
       </c>
       <c r="F3">
-        <v>327191000</v>
+        <v>335000000</v>
       </c>
       <c r="G3">
         <v>389986000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>114283000</v>
+        <v>114000000</v>
       </c>
       <c r="C4">
-        <v>106372000</v>
+        <v>106000000</v>
       </c>
       <c r="D4">
-        <v>110213000</v>
+        <v>110000000</v>
       </c>
       <c r="E4">
-        <v>115721000</v>
+        <v>116000000</v>
       </c>
       <c r="F4">
-        <v>101575000</v>
+        <v>102000000</v>
       </c>
       <c r="G4">
         <v>90479000</v>
@@ -977,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>101000000</v>
@@ -1045,23 +1156,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1670483000</v>
+        <v>1670000000</v>
       </c>
       <c r="C6">
-        <v>1657620000</v>
+        <v>1658000000</v>
       </c>
       <c r="D6">
-        <v>1734897000</v>
+        <v>1735000000</v>
       </c>
       <c r="E6">
-        <v>1715769000</v>
+        <v>1716000000</v>
       </c>
       <c r="F6">
-        <v>1543013000</v>
+        <v>1543000000</v>
       </c>
       <c r="G6">
         <v>1457067000</v>
@@ -1167,23 +1278,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>348238000</v>
+        <v>348000000</v>
       </c>
       <c r="C7">
-        <v>316741000</v>
+        <v>317000000</v>
       </c>
       <c r="D7">
-        <v>310690000</v>
+        <v>311000000</v>
       </c>
       <c r="E7">
-        <v>305911000</v>
+        <v>436000000</v>
       </c>
       <c r="F7">
-        <v>303313000</v>
+        <v>303000000</v>
       </c>
       <c r="G7">
         <v>301979000</v>
@@ -1289,8 +1400,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
         <v>128000000</v>
@@ -1303,8 +1414,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1204000</v>
@@ -1389,23 +1500,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1702406000</v>
+        <v>1702000000</v>
       </c>
       <c r="C10">
-        <v>1140241000</v>
+        <v>1140000000</v>
       </c>
       <c r="D10">
-        <v>1142829000</v>
+        <v>1143000000</v>
       </c>
       <c r="E10">
-        <v>1161623000</v>
+        <v>1162000000</v>
       </c>
       <c r="F10">
-        <v>1173577000</v>
+        <v>1174000000</v>
       </c>
       <c r="G10">
         <v>1194314000</v>
@@ -1511,8 +1622,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>783315000</v>
@@ -1555,23 +1666,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>463645000</v>
+        <v>464000000</v>
       </c>
       <c r="C12">
-        <v>443786000</v>
+        <v>444000000</v>
       </c>
       <c r="D12">
-        <v>419540000</v>
+        <v>420000000</v>
       </c>
       <c r="E12">
-        <v>439226000</v>
+        <v>177000000</v>
       </c>
       <c r="F12">
-        <v>427936000</v>
+        <v>428000000</v>
       </c>
       <c r="G12">
         <v>439398000</v>
@@ -1677,8 +1788,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>3297604000</v>
@@ -1799,23 +1910,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>4968087000</v>
+        <v>4968000000</v>
       </c>
       <c r="C14">
-        <v>4361274000</v>
+        <v>4361000000</v>
       </c>
       <c r="D14">
-        <v>4395067000</v>
+        <v>4395000000</v>
       </c>
       <c r="E14">
-        <v>4386299000</v>
+        <v>4386000000</v>
       </c>
       <c r="F14">
-        <v>4213875000</v>
+        <v>4214000000</v>
       </c>
       <c r="G14">
         <v>4122548000</v>
@@ -1921,23 +2032,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>454688000</v>
+        <v>455000000</v>
       </c>
       <c r="C15">
-        <v>437195000</v>
+        <v>437000000</v>
       </c>
       <c r="D15">
-        <v>360547000</v>
+        <v>361000000</v>
       </c>
       <c r="E15">
-        <v>417283000</v>
+        <v>392000000</v>
       </c>
       <c r="F15">
-        <v>363835000</v>
+        <v>342000000</v>
       </c>
       <c r="G15">
         <v>340607000</v>
@@ -2043,8 +2154,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>150000000</v>
@@ -2126,8 +2237,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>652306000</v>
@@ -2239,8 +2350,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>652000000</v>
@@ -2280,23 +2391,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1256994000</v>
+        <v>1257000000</v>
       </c>
       <c r="C19">
-        <v>1042491000</v>
+        <v>1042000000</v>
       </c>
       <c r="D19">
-        <v>960826000</v>
+        <v>961000000</v>
       </c>
       <c r="E19">
-        <v>971225000</v>
+        <v>971000000</v>
       </c>
       <c r="F19">
-        <v>907196000</v>
+        <v>907000000</v>
       </c>
       <c r="G19">
         <v>926716000</v>
@@ -2402,23 +2513,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>647799000</v>
+        <v>648000000</v>
       </c>
       <c r="C20">
-        <v>347999000</v>
+        <v>348000000</v>
       </c>
       <c r="D20">
-        <v>347792000</v>
+        <v>348000000</v>
       </c>
       <c r="E20">
-        <v>347588000</v>
+        <v>455000000</v>
       </c>
       <c r="F20">
-        <v>347385000</v>
+        <v>347000000</v>
       </c>
       <c r="G20">
         <v>347186000</v>
@@ -2503,23 +2614,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>102167000</v>
+        <v>102000000</v>
       </c>
       <c r="C21">
-        <v>114573000</v>
+        <v>115000000</v>
       </c>
       <c r="D21">
-        <v>106838000</v>
+        <v>107000000</v>
       </c>
       <c r="E21">
-        <v>101148000</v>
+        <v>101000000</v>
       </c>
       <c r="F21">
-        <v>95991000</v>
+        <v>96000000</v>
       </c>
       <c r="G21">
         <v>98408000</v>
@@ -2625,8 +2736,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>-783000000</v>
@@ -2666,23 +2777,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>252999000</v>
+        <v>253000000</v>
       </c>
       <c r="C23">
-        <v>230982000</v>
+        <v>231000000</v>
       </c>
       <c r="D23">
-        <v>219428000</v>
+        <v>219000000</v>
       </c>
       <c r="E23">
-        <v>225663000</v>
+        <v>119000000</v>
       </c>
       <c r="F23">
-        <v>232041000</v>
+        <v>232000000</v>
       </c>
       <c r="G23">
         <v>233495000</v>
@@ -2788,8 +2899,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1002965000</v>
@@ -2910,23 +3021,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2259959000</v>
+        <v>2260000000</v>
       </c>
       <c r="C25">
-        <v>1736045000</v>
+        <v>1736000000</v>
       </c>
       <c r="D25">
-        <v>1634884000</v>
+        <v>1635000000</v>
       </c>
       <c r="E25">
-        <v>1645624000</v>
+        <v>1646000000</v>
       </c>
       <c r="F25">
-        <v>1582613000</v>
+        <v>1583000000</v>
       </c>
       <c r="G25">
         <v>1605805000</v>
@@ -3032,23 +3143,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>2697632000</v>
+        <v>2698000000</v>
       </c>
       <c r="C26">
-        <v>2590893000</v>
+        <v>2591000000</v>
       </c>
       <c r="D26">
-        <v>2552207000</v>
+        <v>2552000000</v>
       </c>
       <c r="E26">
-        <v>2467701000</v>
+        <v>2468000000</v>
       </c>
       <c r="F26">
-        <v>2411791000</v>
+        <v>2412000000</v>
       </c>
       <c r="G26">
         <v>2354801000</v>
@@ -3154,23 +3265,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3654848000</v>
+        <v>3655000000</v>
       </c>
       <c r="C27">
-        <v>3468543000</v>
+        <v>3469000000</v>
       </c>
       <c r="D27">
-        <v>3281623000</v>
+        <v>3282000000</v>
       </c>
       <c r="E27">
-        <v>3046288000</v>
+        <v>3046000000</v>
       </c>
       <c r="F27">
-        <v>2869709000</v>
+        <v>2870000000</v>
       </c>
       <c r="G27">
         <v>2693402000</v>
@@ -3276,8 +3387,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3522219000</v>
@@ -3398,23 +3509,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2708128000</v>
+        <v>2708000000</v>
       </c>
       <c r="C29">
-        <v>2625229000</v>
+        <v>2625000000</v>
       </c>
       <c r="D29">
-        <v>2760183000</v>
+        <v>2760000000</v>
       </c>
       <c r="E29">
-        <v>2740675000</v>
+        <v>2741000000</v>
       </c>
       <c r="F29">
-        <v>2631262000</v>
+        <v>2631000000</v>
       </c>
       <c r="G29">
         <v>2516743000</v>
@@ -3520,23 +3631,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2708128000</v>
+        <v>2708000000</v>
       </c>
       <c r="C30">
-        <v>2625229000</v>
+        <v>2625000000</v>
       </c>
       <c r="D30">
-        <v>2760183000</v>
+        <v>2760000000</v>
       </c>
       <c r="E30">
-        <v>2740675000</v>
+        <v>2741000000</v>
       </c>
       <c r="F30">
-        <v>2631262000</v>
+        <v>2631000000</v>
       </c>
       <c r="G30">
         <v>2516743000</v>
@@ -3642,8 +3753,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>4968087000</v>
@@ -3764,8 +3875,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>274316000</v>
@@ -3886,8 +3997,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1005722000</v>
@@ -4008,23 +4119,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>-228252000</v>
+        <v>-228000000</v>
       </c>
       <c r="C34">
-        <v>-681545000</v>
+        <v>-682000000</v>
       </c>
       <c r="D34">
-        <v>-786960000</v>
+        <v>-787000000</v>
       </c>
       <c r="E34">
-        <v>-716352000</v>
+        <v>-609000000</v>
       </c>
       <c r="F34">
-        <v>-666434000</v>
+        <v>-667000000</v>
       </c>
       <c r="G34">
         <v>-499974000</v>
@@ -4130,23 +4241,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>797799000</v>
+        <v>798000000</v>
       </c>
       <c r="C35">
-        <v>347999000</v>
+        <v>348000000</v>
       </c>
       <c r="D35">
-        <v>347792000</v>
+        <v>348000000</v>
       </c>
       <c r="E35">
-        <v>372588000</v>
+        <v>480000000</v>
       </c>
       <c r="F35">
-        <v>347385000</v>
+        <v>347000000</v>
       </c>
       <c r="G35">
         <v>347186000</v>
